--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2496.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2496.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.558951036506226</v>
+        <v>0.9663489460945129</v>
       </c>
       <c r="B1">
-        <v>3.869945171937788</v>
+        <v>0.7534570693969727</v>
       </c>
       <c r="C1">
-        <v>3.471547909871507</v>
+        <v>4.007230758666992</v>
       </c>
       <c r="D1">
-        <v>2.963408831369831</v>
+        <v>2.977682590484619</v>
       </c>
       <c r="E1">
-        <v>2.810804418108544</v>
+        <v>0.8051601052284241</v>
       </c>
     </row>
   </sheetData>
